--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="46">
   <si>
     <t xml:space="preserve">testname</t>
   </si>
@@ -48,19 +48,13 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
     <t xml:space="preserve">verifyFooterLinksAndTitle</t>
   </si>
   <si>
     <t xml:space="preserve">To check whether the donor portal footer pages have correct title</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">verifyHeaderLinksAndHeaderText</t>
@@ -69,22 +63,16 @@
     <t xml:space="preserve">To check whether the donor portal header pages have correct header</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">verifyFooterLinksAndHeaderText</t>
   </si>
   <si>
     <t xml:space="preserve">To check whether the donor portal footer pages have correct header</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
     <t xml:space="preserve">amazonTest</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
+    <t xml:space="preserve">ENDOFTESTS</t>
   </si>
   <si>
     <t xml:space="preserve">browser</t>
@@ -169,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">Terms &amp; Conditions</t>
+  </si>
+  <si>
+    <t>menutext2</t>
   </si>
 </sst>
 </file>
@@ -291,19 +282,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="84.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.22"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="44.55" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="84.44" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="21.22" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="18.56" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="23.22" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -333,83 +324,90 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
+      <c r="D2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
+      <c r="D3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -426,21 +424,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="1" width="11.53"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="43.9" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="12.03" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="14.2" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="20.38" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="26.88" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="20.38" collapsed="true" outlineLevel="0"/>
+    <col min="16379" max="16380" customWidth="true" hidden="false" style="1" width="11.53" collapsed="true" outlineLevel="0"/>
+    <col min="16381" max="16381" customWidth="true" hidden="false" style="0" width="11.53" collapsed="true" outlineLevel="0"/>
+    <col min="16382" max="16384" customWidth="true" hidden="false" style="1" width="11.53" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -451,16 +451,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -471,360 +474,88 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="1048295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -849,13 +580,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="1" width="11.53"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="43.9" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="12.03" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="14.2" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="20.38" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="26.88" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="20.38" collapsed="true" outlineLevel="0"/>
+    <col min="16382" max="16384" customWidth="true" hidden="false" style="1" width="11.53" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,16 +597,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,16 +617,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,16 +637,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,16 +657,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -946,16 +677,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -966,16 +697,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -986,16 +717,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,756 +737,756 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F31" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
